--- a/data_exports/enrollments_raw_1995626.xlsx
+++ b/data_exports/enrollments_raw_1995626.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>root_account_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>course_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>course_section_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>associated_user_id</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>limit_privileges_to_course_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>start_at</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>end_at</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>associated_user_id</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>start_at</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>end_at</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>course_section_id</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>root_account_id</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>limit_privileges_to_course_section</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -575,37 +575,37 @@
         <v>46927763</v>
       </c>
       <c r="B2" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C2" t="n">
         <v>5444921</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1995626</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>2025-08-18T17:24:25Z</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2025-08-18T17:24:25Z</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K2" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -622,16 +622,16 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-09-02T03:00:17Z</t>
+          <t>2025-11-24T00:35:16Z</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>3069</v>
+        <v>28063</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5444921', 'current_grade': None, 'current_score': 66.89, 'final_grade': None, 'final_score': 6.37, 'unposted_current_score': 66.89, 'unposted_current_grade': None, 'unposted_final_score': 6.37, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5444921', 'current_grade': None, 'current_score': 87.71, 'final_grade': None, 'final_score': 59.29, 'unposted_current_score': 89.41, 'unposted_current_grade': None, 'unposted_final_score': 73.94, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -672,37 +672,37 @@
         <v>46550659</v>
       </c>
       <c r="B3" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C3" t="n">
         <v>5362467</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1995626</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2025-06-13T15:25:43Z</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>2025-06-13T15:25:43Z</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K3" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -719,16 +719,16 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-09-02T20:38:01Z</t>
+          <t>2025-11-26T03:20:53Z</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>15132</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5362467', 'current_grade': None, 'current_score': 50.25, 'final_grade': None, 'final_score': 3.18, 'unposted_current_score': 50.25, 'unposted_current_grade': None, 'unposted_final_score': 3.18, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5362467', 'current_grade': None, 'current_score': 98.82, 'final_grade': None, 'final_score': 70.66, 'unposted_current_score': 97.84, 'unposted_current_grade': None, 'unposted_final_score': 84.61, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -769,37 +769,37 @@
         <v>46542397</v>
       </c>
       <c r="B4" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C4" t="n">
         <v>5541921</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1995626</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2025-06-11T21:24:40Z</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>2025-06-11T21:24:40Z</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K4" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -816,16 +816,16 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-09-02T02:39:26Z</t>
+          <t>2025-11-24T02:59:09Z</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>1988</v>
+        <v>18144</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5541921', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.06, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.06, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5541921', 'current_grade': None, 'current_score': 98.39, 'final_grade': None, 'final_score': 72.11, 'unposted_current_score': 97.89, 'unposted_current_grade': None, 'unposted_final_score': 86.41, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -866,37 +866,37 @@
         <v>46789305</v>
       </c>
       <c r="B5" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C5" t="n">
         <v>5458069</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1995626</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2025-07-30T17:24:41Z</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>2025-07-30T17:24:41Z</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K5" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -913,16 +913,16 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-09-02T16:24:57Z</t>
+          <t>2025-11-24T00:28:35Z</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>5009</v>
+        <v>19567</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5458069', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5458069', 'current_grade': None, 'current_score': 93.98, 'final_grade': None, 'final_score': 67.1, 'unposted_current_score': 94.21, 'unposted_current_grade': None, 'unposted_final_score': 81.4, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -963,37 +963,37 @@
         <v>46543271</v>
       </c>
       <c r="B6" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C6" t="n">
         <v>5418705</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1995626</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2025-06-11T23:25:19Z</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>2025-06-11T23:25:19Z</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K6" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1010,16 +1010,16 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-09-02T17:18:33Z</t>
+          <t>2025-11-24T15:46:47Z</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>8561</v>
+        <v>22434</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5418705', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 9.52, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 9.52, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5418705', 'current_grade': None, 'current_score': 100.56, 'final_grade': None, 'final_score': 74.93, 'unposted_current_score': 100.09, 'unposted_current_grade': None, 'unposted_final_score': 89.58, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1060,37 +1060,37 @@
         <v>46944979</v>
       </c>
       <c r="B7" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C7" t="n">
         <v>5442579</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1995626</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2025-08-19T23:25:50Z</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>2025-08-19T23:25:50Z</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K7" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1107,16 +1107,16 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2025-09-01T06:53:56Z</t>
+          <t>2025-11-25T00:15:37Z</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>594</v>
+        <v>16242</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5442579', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5442579', 'current_grade': None, 'current_score': 95.15, 'final_grade': None, 'final_score': 68.38, 'unposted_current_score': 95.56, 'unposted_current_grade': None, 'unposted_final_score': 83.03, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1157,37 +1157,37 @@
         <v>46625213</v>
       </c>
       <c r="B8" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C8" t="n">
         <v>5467919</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1995626</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2025-06-26T21:25:24Z</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>2025-06-26T21:25:24Z</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K8" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1204,16 +1204,16 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2025-09-02T18:33:37Z</t>
+          <t>2025-11-27T18:00:19Z</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>3122</v>
+        <v>15997</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5467919', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 9.52, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 9.52, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5467919', 'current_grade': None, 'current_score': 72.64, 'final_grade': None, 'final_score': 54.43, 'unposted_current_score': 76.34, 'unposted_current_grade': None, 'unposted_final_score': 68.73, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1254,37 +1254,37 @@
         <v>46513603</v>
       </c>
       <c r="B9" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C9" t="n">
         <v>5497699</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1995626</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2025-06-10T17:24:49Z</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>2025-06-10T17:24:49Z</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K9" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1301,16 +1301,16 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2025-09-02T19:30:52Z</t>
+          <t>2025-11-27T17:42:16Z</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>1788</v>
+        <v>10315</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5497699', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.06, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.06, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5497699', 'current_grade': None, 'current_score': 94.12, 'final_grade': None, 'final_score': 61.74, 'unposted_current_score': 92.71, 'unposted_current_grade': None, 'unposted_final_score': 74.62, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1351,37 +1351,37 @@
         <v>46513627</v>
       </c>
       <c r="B10" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C10" t="n">
         <v>5481933</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1995626</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2025-06-10T17:24:52Z</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>2025-06-10T17:24:52Z</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K10" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1398,16 +1398,16 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2025-09-02T18:17:26Z</t>
+          <t>2025-11-27T03:40:05Z</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>2989</v>
+        <v>27887</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5481933', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.06, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.06, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5481933', 'current_grade': None, 'current_score': 89.42, 'final_grade': None, 'final_score': 58.63, 'unposted_current_score': 89.64, 'unposted_current_grade': None, 'unposted_final_score': 72.23, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1448,37 +1448,37 @@
         <v>46944481</v>
       </c>
       <c r="B11" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C11" t="n">
         <v>5549937</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>1995626</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>2025-08-19T21:26:18Z</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>2025-08-19T21:26:18Z</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K11" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1495,16 +1495,16 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2025-09-02T18:50:15Z</t>
+          <t>2025-11-25T01:55:57Z</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>559</v>
+        <v>6428</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5549937', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.06, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.06, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5549937', 'current_grade': None, 'current_score': 83.39, 'final_grade': None, 'final_score': 57.13, 'unposted_current_score': 81.82, 'unposted_current_grade': None, 'unposted_final_score': 68.2, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1545,37 +1545,37 @@
         <v>46563371</v>
       </c>
       <c r="B12" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C12" t="n">
         <v>5430211</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1995626</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>2025-06-16T21:24:21Z</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>2025-06-16T21:24:21Z</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K12" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1592,16 +1592,16 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2025-08-25T22:16:38Z</t>
+          <t>2025-11-25T01:59:07Z</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>5790</v>
+        <v>31795</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5430211', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5430211', 'current_grade': None, 'current_score': 82.49, 'final_grade': None, 'final_score': 55.58, 'unposted_current_score': 83.88, 'unposted_current_grade': None, 'unposted_final_score': 69.18, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1642,37 +1642,37 @@
         <v>46992625</v>
       </c>
       <c r="B13" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C13" t="n">
         <v>5339887</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1995626</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>2025-08-23T05:45:57Z</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>2025-08-23T05:45:57Z</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K13" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1689,16 +1689,16 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2025-08-29T02:47:05Z</t>
+          <t>2025-11-27T06:41:46Z</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>32029</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5339887', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5339887', 'current_grade': None, 'current_score': 90.33, 'final_grade': None, 'final_score': 64.44, 'unposted_current_score': 88.71, 'unposted_current_grade': None, 'unposted_final_score': 76.56, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1739,37 +1739,37 @@
         <v>46847765</v>
       </c>
       <c r="B14" t="n">
+        <v>86643</v>
+      </c>
+      <c r="C14" t="n">
         <v>5480653</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>1995626</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>2175683</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>2025-08-08T21:24:56Z</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>2025-08-08T21:24:56Z</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K14" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1786,16 +1786,16 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2025-08-29T15:21:06Z</t>
+          <t>2025-11-24T00:49:49Z</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>1639</v>
+        <v>12344</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5480653', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5480653', 'current_grade': None, 'current_score': 97.44, 'final_grade': None, 'final_score': 64.38, 'unposted_current_score': 97.48, 'unposted_current_grade': None, 'unposted_final_score': 79.03, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1833,40 +1833,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>46955615</v>
+        <v>46949239</v>
       </c>
       <c r="B15" t="n">
-        <v>5465667</v>
+        <v>86643</v>
       </c>
       <c r="C15" t="n">
+        <v>5258113</v>
+      </c>
+      <c r="D15" t="n">
         <v>1995626</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2025-08-20T23:27:15Z</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-08-20T23:27:15Z</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+      <c r="E15" t="n">
         <v>2175683</v>
       </c>
-      <c r="K15" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L15" t="b">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="b">
         <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-20T15:26:46Z</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-08-20T15:26:46Z</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1883,16 +1883,16 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2025-08-25T22:02:53Z</t>
+          <t>2025-11-26T03:00:54Z</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>566</v>
+        <v>19911</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5465667', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5258113', 'current_grade': None, 'current_score': 87.68, 'final_grade': None, 'final_score': 62.5, 'unposted_current_score': 89.78, 'unposted_current_grade': None, 'unposted_final_score': 77.5, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1914,56 +1914,56 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>U56203324</t>
+          <t>U34021070</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5465667</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5258113</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>{'id': 5465667, 'name': 'Paxton Lanier', 'created_at': '2024-12-11T15:04:50-05:00', 'sortable_name': 'Lanier, Paxton', 'short_name': 'Paxton Lanier', 'sis_user_id': 'U56203324', 'integration_id': None, 'login_id': 'paxtonl'}</t>
+          <t>{'id': 5258113, 'name': 'Wren Law', 'created_at': '2023-10-19T21:04:22-04:00', 'sortable_name': 'Law, Wren', 'short_name': 'Wren Law', 'sis_user_id': 'U34021070', 'integration_id': None, 'login_id': 'law20'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>46949239</v>
+        <v>47094057</v>
       </c>
       <c r="B16" t="n">
-        <v>5258113</v>
+        <v>86643</v>
       </c>
       <c r="C16" t="n">
+        <v>5519299</v>
+      </c>
+      <c r="D16" t="n">
         <v>1995626</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2025-08-20T15:26:46Z</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-08-20T15:26:46Z</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
+      <c r="E16" t="n">
         <v>2175683</v>
       </c>
-      <c r="K16" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L16" t="b">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="b">
         <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-26T17:26:35Z</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-08-26T17:26:35Z</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1980,16 +1980,16 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2025-09-02T15:43:38Z</t>
+          <t>2025-11-25T15:26:59Z</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>4784</v>
+        <v>23283</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5258113', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 9.52, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 9.52, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5519299', 'current_grade': None, 'current_score': 97.4, 'final_grade': None, 'final_score': 69.6, 'unposted_current_score': 97.44, 'unposted_current_grade': None, 'unposted_final_score': 84.25, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2011,56 +2011,56 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>U34021070</t>
+          <t>U62347233</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5258113</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5519299</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>{'id': 5258113, 'name': 'Wren Law', 'created_at': '2023-10-19T21:04:22-04:00', 'sortable_name': 'Law, Wren', 'short_name': 'Wren Law', 'sis_user_id': 'U34021070', 'integration_id': None, 'login_id': 'law20'}</t>
+          <t>{'id': 5519299, 'name': 'Alberto Marcoccia De Castro', 'created_at': '2025-03-31T15:06:29-04:00', 'sortable_name': 'Marcoccia De Castro, Alberto', 'short_name': 'Alberto Marcoccia De Castro', 'sis_user_id': 'U62347233', 'integration_id': None, 'login_id': 'albertom2'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>47094057</v>
+        <v>46590107</v>
       </c>
       <c r="B17" t="n">
-        <v>5519299</v>
+        <v>86643</v>
       </c>
       <c r="C17" t="n">
+        <v>5458325</v>
+      </c>
+      <c r="D17" t="n">
         <v>1995626</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2025-08-26T17:26:35Z</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-08-26T17:26:35Z</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+      <c r="E17" t="n">
         <v>2175683</v>
       </c>
-      <c r="K17" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L17" t="b">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="b">
         <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-06-19T15:24:56Z</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-06-19T15:24:56Z</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2077,16 +2077,16 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2025-09-02T16:50:30Z</t>
+          <t>2025-11-24T00:37:05Z</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>1363</v>
+        <v>29375</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5519299', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5458325', 'current_grade': None, 'current_score': 94.18, 'final_grade': None, 'final_score': 69.17, 'unposted_current_score': 93.99, 'unposted_current_grade': None, 'unposted_final_score': 83.12, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2108,56 +2108,56 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>U62347233</t>
+          <t>U91347090</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5519299</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5458325</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>{'id': 5519299, 'name': 'Alberto Marcoccia De Castro', 'created_at': '2025-03-31T15:06:29-04:00', 'sortable_name': 'Marcoccia De Castro, Alberto', 'short_name': 'Alberto Marcoccia De Castro', 'sis_user_id': 'U62347233', 'integration_id': None, 'login_id': 'albertom2'}</t>
+          <t>{'id': 5458325, 'name': 'Niasia Massey', 'created_at': '2024-11-27T09:04:35-05:00', 'sortable_name': 'Massey, Niasia', 'short_name': 'Niasia Massey', 'sis_user_id': 'U91347090', 'integration_id': None, 'login_id': 'nmassey2'}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>46590107</v>
+        <v>46720815</v>
       </c>
       <c r="B18" t="n">
-        <v>5458325</v>
+        <v>86643</v>
       </c>
       <c r="C18" t="n">
+        <v>5435739</v>
+      </c>
+      <c r="D18" t="n">
         <v>1995626</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2025-06-19T15:24:56Z</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-06-19T15:24:56Z</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+      <c r="E18" t="n">
         <v>2175683</v>
       </c>
-      <c r="K18" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L18" t="b">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="b">
         <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-24T21:25:47Z</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-07-17T01:24:46Z</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -2174,16 +2174,16 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2025-09-02T16:14:03Z</t>
+          <t>2025-11-27T20:22:56Z</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>1971</v>
+        <v>14819</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5458325', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5435739', 'current_grade': None, 'current_score': 91.86, 'final_grade': None, 'final_score': 67.08, 'unposted_current_score': 90.14, 'unposted_current_grade': None, 'unposted_final_score': 79.28, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2205,56 +2205,56 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>U91347090</t>
+          <t>U80777927</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5458325</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5435739</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>{'id': 5458325, 'name': 'Niasia Massey', 'created_at': '2024-11-27T09:04:35-05:00', 'sortable_name': 'Massey, Niasia', 'short_name': 'Niasia Massey', 'sis_user_id': 'U91347090', 'integration_id': None, 'login_id': 'nmassey2'}</t>
+          <t>{'id': 5435739, 'name': 'Andres Mathison', 'created_at': '2024-11-05T13:07:36-05:00', 'sortable_name': 'Mathison, Andres', 'short_name': 'Andres Mathison', 'sis_user_id': 'U80777927', 'integration_id': None, 'login_id': 'andresmathison'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>46720815</v>
+        <v>46542803</v>
       </c>
       <c r="B19" t="n">
-        <v>5435739</v>
+        <v>86643</v>
       </c>
       <c r="C19" t="n">
+        <v>5419653</v>
+      </c>
+      <c r="D19" t="n">
         <v>1995626</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2025-07-17T01:24:46Z</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-08-24T21:25:47Z</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+      <c r="E19" t="n">
         <v>2175683</v>
       </c>
-      <c r="K19" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L19" t="b">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="b">
         <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-06-11T21:25:07Z</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-06-11T21:25:07Z</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2271,16 +2271,16 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2025-09-02T20:43:15Z</t>
+          <t>2025-11-27T20:11:08Z</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>1951</v>
+        <v>21972</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5435739', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5419653', 'current_grade': None, 'current_score': 84.82, 'final_grade': None, 'final_score': 60.42, 'unposted_current_score': 79.45, 'unposted_current_grade': None, 'unposted_final_score': 68.42, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2302,56 +2302,56 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>U80777927</t>
+          <t>U06354603</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5435739</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5419653</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>{'id': 5435739, 'name': 'Andres Mathison', 'created_at': '2024-11-05T13:07:36-05:00', 'sortable_name': 'Mathison, Andres', 'short_name': 'Andres Mathison', 'sis_user_id': 'U80777927', 'integration_id': None, 'login_id': 'andresmathison'}</t>
+          <t>{'id': 5419653, 'name': 'Jack Medhurst', 'created_at': '2024-10-15T11:05:42-04:00', 'sortable_name': 'Medhurst, Jack', 'short_name': 'Jack Medhurst', 'sis_user_id': 'U06354603', 'integration_id': None, 'login_id': 'jackmedhurst'}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>46542803</v>
+        <v>46849717</v>
       </c>
       <c r="B20" t="n">
-        <v>5419653</v>
+        <v>86643</v>
       </c>
       <c r="C20" t="n">
+        <v>5477723</v>
+      </c>
+      <c r="D20" t="n">
         <v>1995626</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2025-06-11T21:25:07Z</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-06-11T21:25:07Z</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+      <c r="E20" t="n">
         <v>2175683</v>
       </c>
-      <c r="K20" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L20" t="b">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="b">
         <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-09T17:24:48Z</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-08-09T17:24:48Z</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2368,16 +2368,16 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2025-09-02T17:00:53Z</t>
+          <t>2025-11-26T16:40:33Z</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>7422</v>
+        <v>20772</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5419653', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.06, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.06, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5477723', 'current_grade': None, 'current_score': 87.62, 'final_grade': None, 'final_score': 62.46, 'unposted_current_score': 88.53, 'unposted_current_grade': None, 'unposted_final_score': 76.41, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2399,56 +2399,56 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>U06354603</t>
+          <t>U48845422</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5419653</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5477723</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>{'id': 5419653, 'name': 'Jack Medhurst', 'created_at': '2024-10-15T11:05:42-04:00', 'sortable_name': 'Medhurst, Jack', 'short_name': 'Jack Medhurst', 'sis_user_id': 'U06354603', 'integration_id': None, 'login_id': 'jackmedhurst'}</t>
+          <t>{'id': 5477723, 'name': 'Leonardo Mendez', 'created_at': '2025-01-07T15:05:17-05:00', 'sortable_name': 'Mendez, Leonardo', 'short_name': 'Leonardo Mendez', 'sis_user_id': 'U48845422', 'integration_id': None, 'login_id': 'leonardomendez'}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>46849717</v>
+        <v>46552631</v>
       </c>
       <c r="B21" t="n">
-        <v>5477723</v>
+        <v>86643</v>
       </c>
       <c r="C21" t="n">
+        <v>5445017</v>
+      </c>
+      <c r="D21" t="n">
         <v>1995626</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2025-08-09T17:24:48Z</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-08-09T17:24:48Z</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
+      <c r="E21" t="n">
         <v>2175683</v>
       </c>
-      <c r="K21" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L21" t="b">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="b">
         <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-06-13T21:24:43Z</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-06-13T21:24:43Z</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2465,16 +2465,16 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2025-09-02T15:43:45Z</t>
+          <t>2025-11-24T17:21:58Z</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>3210</v>
+        <v>17846</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5477723', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.06, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.06, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5445017', 'current_grade': None, 'current_score': 93.06, 'final_grade': None, 'final_score': 64.9, 'unposted_current_score': 94.2, 'unposted_current_grade': None, 'unposted_final_score': 79.9, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2496,56 +2496,56 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>U48845422</t>
+          <t>U65990664</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5477723</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5445017</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>{'id': 5477723, 'name': 'Leonardo Mendez', 'created_at': '2025-01-07T15:05:17-05:00', 'sortable_name': 'Mendez, Leonardo', 'short_name': 'Leonardo Mendez', 'sis_user_id': 'U48845422', 'integration_id': None, 'login_id': 'leonardomendez'}</t>
+          <t>{'id': 5445017, 'name': 'Joan Mitterbach', 'created_at': '2024-11-14T15:06:04-05:00', 'sortable_name': 'Mitterbach, Joan', 'short_name': 'Joan Mitterbach', 'sis_user_id': 'U65990664', 'integration_id': None, 'login_id': 'jmitterbach'}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>46552631</v>
+        <v>47074071</v>
       </c>
       <c r="B22" t="n">
-        <v>5445017</v>
+        <v>86643</v>
       </c>
       <c r="C22" t="n">
+        <v>5516889</v>
+      </c>
+      <c r="D22" t="n">
         <v>1995626</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2025-06-13T21:24:43Z</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-06-13T21:24:43Z</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+      <c r="E22" t="n">
         <v>2175683</v>
       </c>
-      <c r="K22" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L22" t="b">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="b">
         <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-26T05:43:37Z</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-08-26T05:43:37Z</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2562,16 +2562,16 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2025-08-28T03:17:01Z</t>
+          <t>2025-11-19T15:55:01Z</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>1748</v>
+        <v>26838</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5445017', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.06, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.06, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5516889', 'current_grade': None, 'current_score': 100.87, 'final_grade': None, 'final_score': 72.48, 'unposted_current_score': 99.97, 'unposted_current_grade': None, 'unposted_final_score': 86.78, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2593,56 +2593,56 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>U65990664</t>
+          <t>U73781108</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5445017</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5516889</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>{'id': 5445017, 'name': 'Joan Mitterbach', 'created_at': '2024-11-14T15:06:04-05:00', 'sortable_name': 'Mitterbach, Joan', 'short_name': 'Joan Mitterbach', 'sis_user_id': 'U65990664', 'integration_id': None, 'login_id': 'jmitterbach'}</t>
+          <t>{'id': 5516889, 'name': 'Leo Moehlenkamp', 'created_at': '2025-03-25T11:05:09-04:00', 'sortable_name': 'Moehlenkamp, Leo', 'short_name': 'Leo Moehlenkamp', 'sis_user_id': 'U73781108', 'integration_id': None, 'login_id': 'leom1'}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>47074071</v>
+        <v>46515281</v>
       </c>
       <c r="B23" t="n">
-        <v>5516889</v>
+        <v>86643</v>
       </c>
       <c r="C23" t="n">
+        <v>5477505</v>
+      </c>
+      <c r="D23" t="n">
         <v>1995626</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-08-26T05:43:37Z</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-08-26T05:43:37Z</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
+      <c r="E23" t="n">
         <v>2175683</v>
       </c>
-      <c r="K23" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L23" t="b">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="b">
         <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-06-10T21:24:45Z</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-06-10T21:24:45Z</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2659,16 +2659,16 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2025-09-01T23:58:35Z</t>
+          <t>2025-11-24T04:29:41Z</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>3607</v>
+        <v>11142</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5516889', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 9.52, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 9.52, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5477505', 'current_grade': None, 'current_score': 49.52, 'final_grade': None, 'final_score': 34.65, 'unposted_current_score': 55.73, 'unposted_current_grade': None, 'unposted_final_score': 47.55, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2690,56 +2690,56 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>U73781108</t>
+          <t>U46466015</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5516889</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5477505</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>{'id': 5516889, 'name': 'Leo Moehlenkamp', 'created_at': '2025-03-25T11:05:09-04:00', 'sortable_name': 'Moehlenkamp, Leo', 'short_name': 'Leo Moehlenkamp', 'sis_user_id': 'U73781108', 'integration_id': None, 'login_id': 'leom1'}</t>
+          <t>{'id': 5477505, 'name': 'Nicolas Moreno', 'created_at': '2025-01-07T13:05:40-05:00', 'sortable_name': 'Moreno, Nicolas', 'short_name': 'Nicolas Moreno', 'sis_user_id': 'U46466015', 'integration_id': None, 'login_id': 'nm56'}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>46515281</v>
+        <v>47114819</v>
       </c>
       <c r="B24" t="n">
-        <v>5477505</v>
+        <v>86643</v>
       </c>
       <c r="C24" t="n">
+        <v>5497293</v>
+      </c>
+      <c r="D24" t="n">
         <v>1995626</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-06-10T21:24:45Z</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-06-10T21:24:45Z</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
+      <c r="E24" t="n">
         <v>2175683</v>
       </c>
-      <c r="K24" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L24" t="b">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="b">
         <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-28T15:31:12Z</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-08-28T15:31:12Z</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2756,16 +2756,16 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2025-09-02T15:48:15Z</t>
+          <t>2025-11-26T20:38:48Z</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>2699</v>
+        <v>47688</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5477505', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5497293', 'current_grade': None, 'current_score': 93.26, 'final_grade': None, 'final_score': 63.03, 'unposted_current_score': 93.6, 'unposted_current_grade': None, 'unposted_final_score': 77.33, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2787,56 +2787,56 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>U46466015</t>
+          <t>U14127130</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5477505</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5497293</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>{'id': 5477505, 'name': 'Nicolas Moreno', 'created_at': '2025-01-07T13:05:40-05:00', 'sortable_name': 'Moreno, Nicolas', 'short_name': 'Nicolas Moreno', 'sis_user_id': 'U46466015', 'integration_id': None, 'login_id': 'nm56'}</t>
+          <t>{'id': 5497293, 'name': 'Henricky Nascimento', 'created_at': '2025-02-06T11:04:18-05:00', 'sortable_name': 'Nascimento, Henricky', 'short_name': 'Henricky Nascimento', 'sis_user_id': 'U14127130', 'integration_id': None, 'login_id': 'hnascimento'}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>47114819</v>
+        <v>46872953</v>
       </c>
       <c r="B25" t="n">
-        <v>5497293</v>
+        <v>86643</v>
       </c>
       <c r="C25" t="n">
+        <v>5546537</v>
+      </c>
+      <c r="D25" t="n">
         <v>1995626</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-08-28T15:31:12Z</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-08-28T15:31:12Z</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+      <c r="E25" t="n">
         <v>2175683</v>
       </c>
-      <c r="K25" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L25" t="b">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="b">
         <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-13T13:24:47Z</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-08-13T13:24:47Z</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2853,16 +2853,16 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2025-09-01T04:22:35Z</t>
+          <t>2025-11-25T18:29:22Z</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>389</v>
+        <v>11317</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5497293', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5546537', 'current_grade': None, 'current_score': 91.4, 'final_grade': None, 'final_score': 66.77, 'unposted_current_score': 92.04, 'unposted_current_grade': None, 'unposted_final_score': 81.07, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2884,56 +2884,56 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>U14127130</t>
+          <t>U95219941</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5497293</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5546537</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>{'id': 5497293, 'name': 'Henricky Nascimento', 'created_at': '2025-02-06T11:04:18-05:00', 'sortable_name': 'Nascimento, Henricky', 'short_name': 'Henricky Nascimento', 'sis_user_id': 'U14127130', 'integration_id': None, 'login_id': 'hnascimento'}</t>
+          <t>{'id': 5546537, 'name': 'Onyx Nnani', 'created_at': '2025-06-12T11:04:59-04:00', 'sortable_name': 'Nnani, Onyx', 'short_name': 'Onyx Nnani', 'sis_user_id': 'U95219941', 'integration_id': None, 'login_id': 'onnani'}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>46872953</v>
+        <v>46989407</v>
       </c>
       <c r="B26" t="n">
-        <v>5546537</v>
+        <v>86643</v>
       </c>
       <c r="C26" t="n">
+        <v>5237579</v>
+      </c>
+      <c r="D26" t="n">
         <v>1995626</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2025-08-13T13:24:47Z</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-08-13T13:24:47Z</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+      <c r="E26" t="n">
         <v>2175683</v>
       </c>
-      <c r="K26" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L26" t="b">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="b">
         <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-22T21:25:53Z</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-08-22T21:25:53Z</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2950,16 +2950,16 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2025-08-25T18:37:17Z</t>
+          <t>2025-11-20T01:25:49Z</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>255</v>
+        <v>12647</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5546537', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.06, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.06, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5237579', 'current_grade': None, 'current_score': 31.42, 'final_grade': None, 'final_score': 19.38, 'unposted_current_score': 40.69, 'unposted_current_grade': None, 'unposted_final_score': 32.26, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2981,56 +2981,56 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>U95219941</t>
+          <t>U88462095</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5546537</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5237579</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>{'id': 5546537, 'name': 'Onyx Nnani', 'created_at': '2025-06-12T11:04:59-04:00', 'sortable_name': 'Nnani, Onyx', 'short_name': 'Onyx Nnani', 'sis_user_id': 'U95219941', 'integration_id': None, 'login_id': 'onnani'}</t>
+          <t>{'id': 5237579, 'name': 'Ethan Pakhomov', 'created_at': '2023-09-27T11:04:47-04:00', 'sortable_name': 'Pakhomov, Ethan', 'short_name': 'Ethan Pakhomov', 'sis_user_id': 'U88462095', 'integration_id': None, 'login_id': 'epakhomov'}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>46989407</v>
+        <v>46552691</v>
       </c>
       <c r="B27" t="n">
-        <v>5237579</v>
+        <v>86643</v>
       </c>
       <c r="C27" t="n">
+        <v>5457615</v>
+      </c>
+      <c r="D27" t="n">
         <v>1995626</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2025-08-22T21:25:53Z</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-08-22T21:25:53Z</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
+      <c r="E27" t="n">
         <v>2175683</v>
       </c>
-      <c r="K27" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L27" t="b">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="b">
         <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-06-13T21:24:49Z</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-06-13T21:24:49Z</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -3047,16 +3047,16 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2025-09-02T15:50:29Z</t>
+          <t>2025-11-24T21:11:23Z</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>1753</v>
+        <v>13275</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5237579', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5457615', 'current_grade': None, 'current_score': 66.03, 'final_grade': None, 'final_score': 41.37, 'unposted_current_score': 63.86, 'unposted_current_grade': None, 'unposted_final_score': 49.37, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -3078,56 +3078,56 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>U88462095</t>
+          <t>U22087117</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5237579</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5457615</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>{'id': 5237579, 'name': 'Ethan Pakhomov', 'created_at': '2023-09-27T11:04:47-04:00', 'sortable_name': 'Pakhomov, Ethan', 'short_name': 'Ethan Pakhomov', 'sis_user_id': 'U88462095', 'integration_id': None, 'login_id': 'epakhomov'}</t>
+          <t>{'id': 5457615, 'name': 'William Richards', 'created_at': '2024-11-26T11:07:05-05:00', 'sortable_name': 'Richards, William', 'short_name': 'William Richards', 'sis_user_id': 'U22087117', 'integration_id': None, 'login_id': 'richardsw'}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>46552691</v>
+        <v>46783413</v>
       </c>
       <c r="B28" t="n">
-        <v>5457615</v>
+        <v>86643</v>
       </c>
       <c r="C28" t="n">
+        <v>5455083</v>
+      </c>
+      <c r="D28" t="n">
         <v>1995626</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2025-06-13T21:24:49Z</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-06-13T21:24:49Z</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
+      <c r="E28" t="n">
         <v>2175683</v>
       </c>
-      <c r="K28" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L28" t="b">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="b">
         <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-07-29T19:26:03Z</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-29T19:26:03Z</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -3144,16 +3144,16 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2025-09-02T03:21:11Z</t>
+          <t>2025-11-20T17:43:48Z</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>3188</v>
+        <v>9924</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5457615', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5455083', 'current_grade': None, 'current_score': 35.89, 'final_grade': None, 'final_score': 19.63, 'unposted_current_score': 38.86, 'unposted_current_grade': None, 'unposted_final_score': 27.63, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -3175,56 +3175,56 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>U22087117</t>
+          <t>U13152977</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5457615</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5455083</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>{'id': 5457615, 'name': 'William Richards', 'created_at': '2024-11-26T11:07:05-05:00', 'sortable_name': 'Richards, William', 'short_name': 'William Richards', 'sis_user_id': 'U22087117', 'integration_id': None, 'login_id': 'richardsw'}</t>
+          <t>{'id': 5455083, 'name': 'Camryn Ryan', 'created_at': '2024-11-22T13:04:30-05:00', 'sortable_name': 'Ryan, Camryn', 'short_name': 'Camryn Ryan', 'sis_user_id': 'U13152977', 'integration_id': None, 'login_id': 'camrynryan'}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>46783413</v>
+        <v>46581859</v>
       </c>
       <c r="B29" t="n">
-        <v>5455083</v>
+        <v>86643</v>
       </c>
       <c r="C29" t="n">
+        <v>5450695</v>
+      </c>
+      <c r="D29" t="n">
         <v>1995626</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2025-07-29T19:26:03Z</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-07-29T19:26:03Z</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
+      <c r="E29" t="n">
         <v>2175683</v>
       </c>
-      <c r="K29" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L29" t="b">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="b">
         <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-06-17T21:24:34Z</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-06-17T21:24:34Z</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3241,16 +3241,16 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2025-09-02T19:26:19Z</t>
+          <t>2025-11-24T04:03:40Z</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>1185</v>
+        <v>12403</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5455083', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5450695', 'current_grade': None, 'current_score': 58.1, 'final_grade': None, 'final_score': 35.18, 'unposted_current_score': 53.15, 'unposted_current_grade': None, 'unposted_final_score': 39.54, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -3272,56 +3272,56 @@
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>U13152977</t>
+          <t>U85026645</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5455083</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5450695</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>{'id': 5455083, 'name': 'Camryn Ryan', 'created_at': '2024-11-22T13:04:30-05:00', 'sortable_name': 'Ryan, Camryn', 'short_name': 'Camryn Ryan', 'sis_user_id': 'U13152977', 'integration_id': None, 'login_id': 'camrynryan'}</t>
+          <t>{'id': 5450695, 'name': 'Andrew Salazar', 'created_at': '2024-11-20T11:06:48-05:00', 'sortable_name': 'Salazar, Andrew', 'short_name': 'Andrew Salazar', 'sis_user_id': 'U85026645', 'integration_id': None, 'login_id': 'andrewsalazar'}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>46581859</v>
+        <v>46872917</v>
       </c>
       <c r="B30" t="n">
-        <v>5450695</v>
+        <v>86643</v>
       </c>
       <c r="C30" t="n">
+        <v>5546975</v>
+      </c>
+      <c r="D30" t="n">
         <v>1995626</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2025-06-17T21:24:34Z</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-06-17T21:24:34Z</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+      <c r="E30" t="n">
         <v>2175683</v>
       </c>
-      <c r="K30" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L30" t="b">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="b">
         <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-13T13:24:43Z</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-08-13T13:24:43Z</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3338,16 +3338,16 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2025-09-02T20:41:15Z</t>
+          <t>2025-11-25T01:41:46Z</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>2596</v>
+        <v>23900</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5450695', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5546975', 'current_grade': None, 'current_score': 91.2, 'final_grade': None, 'final_score': 68.73, 'unposted_current_score': 92.26, 'unposted_current_grade': None, 'unposted_final_score': 83.38, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -3369,56 +3369,56 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>U85026645</t>
+          <t>U20325003</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5450695</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5546975</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>{'id': 5450695, 'name': 'Andrew Salazar', 'created_at': '2024-11-20T11:06:48-05:00', 'sortable_name': 'Salazar, Andrew', 'short_name': 'Andrew Salazar', 'sis_user_id': 'U85026645', 'integration_id': None, 'login_id': 'andrewsalazar'}</t>
+          <t>{'id': 5546975, 'name': 'Caleb Sanders', 'created_at': '2025-06-13T19:04:36-04:00', 'sortable_name': 'Sanders, Caleb', 'short_name': 'Caleb Sanders', 'sis_user_id': 'U20325003', 'integration_id': None, 'login_id': 'calebsanders'}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>46872917</v>
+        <v>47097433</v>
       </c>
       <c r="B31" t="n">
-        <v>5546975</v>
+        <v>86643</v>
       </c>
       <c r="C31" t="n">
+        <v>5359861</v>
+      </c>
+      <c r="D31" t="n">
         <v>1995626</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2025-08-13T13:24:43Z</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2025-08-13T13:24:43Z</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
+      <c r="E31" t="n">
         <v>2175683</v>
       </c>
-      <c r="K31" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L31" t="b">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="b">
         <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-26T21:24:42Z</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-08-26T21:24:42Z</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3435,16 +3435,16 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2025-09-02T18:34:49Z</t>
+          <t>2025-11-26T01:55:46Z</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>2244</v>
+        <v>16027</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5546975', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.06, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.06, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5359861', 'current_grade': None, 'current_score': 81.08, 'final_grade': None, 'final_score': 57.24, 'unposted_current_score': 83.41, 'unposted_current_grade': None, 'unposted_final_score': 71.54, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3466,56 +3466,56 @@
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>U20325003</t>
+          <t>U82917225</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5546975</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5359861</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>{'id': 5546975, 'name': 'Caleb Sanders', 'created_at': '2025-06-13T19:04:36-04:00', 'sortable_name': 'Sanders, Caleb', 'short_name': 'Caleb Sanders', 'sis_user_id': 'U20325003', 'integration_id': None, 'login_id': 'calebsanders'}</t>
+          <t>{'id': 5359861, 'name': 'Kevin Soto', 'created_at': '2024-05-03T11:04:29-04:00', 'sortable_name': 'Soto, Kevin', 'short_name': 'Kevin Soto', 'sis_user_id': 'U82917225', 'integration_id': None, 'login_id': 'kevinalexandersoto'}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>47097433</v>
+        <v>46580979</v>
       </c>
       <c r="B32" t="n">
-        <v>5359861</v>
+        <v>86643</v>
       </c>
       <c r="C32" t="n">
+        <v>5452619</v>
+      </c>
+      <c r="D32" t="n">
         <v>1995626</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2025-08-26T21:24:42Z</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2025-08-26T21:24:42Z</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+      <c r="E32" t="n">
         <v>2175683</v>
       </c>
-      <c r="K32" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L32" t="b">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="b">
         <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-06-17T19:24:56Z</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-06-17T19:24:56Z</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3532,16 +3532,16 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2025-09-02T16:46:48Z</t>
+          <t>2025-11-27T20:21:22Z</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>142</v>
+        <v>59401</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5359861', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5452619', 'current_grade': None, 'current_score': 68.66, 'final_grade': None, 'final_score': 47.46, 'unposted_current_score': 72.41, 'unposted_current_grade': None, 'unposted_final_score': 61.06, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3563,56 +3563,56 @@
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>U82917225</t>
+          <t>U77632975</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5359861</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5452619</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>{'id': 5359861, 'name': 'Kevin Soto', 'created_at': '2024-05-03T11:04:29-04:00', 'sortable_name': 'Soto, Kevin', 'short_name': 'Kevin Soto', 'sis_user_id': 'U82917225', 'integration_id': None, 'login_id': 'kevinalexandersoto'}</t>
+          <t>{'id': 5452619, 'name': 'Francisco Tezza', 'created_at': '2024-11-21T09:04:49-05:00', 'sortable_name': 'Tezza, Francisco', 'short_name': 'Francisco Tezza', 'sis_user_id': 'U77632975', 'integration_id': None, 'login_id': 'franciscot'}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>46580979</v>
+        <v>46552815</v>
       </c>
       <c r="B33" t="n">
-        <v>5452619</v>
+        <v>86643</v>
       </c>
       <c r="C33" t="n">
+        <v>5445877</v>
+      </c>
+      <c r="D33" t="n">
         <v>1995626</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2025-06-17T19:24:56Z</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2025-06-17T19:24:56Z</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+      <c r="E33" t="n">
         <v>2175683</v>
       </c>
-      <c r="K33" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L33" t="b">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="b">
         <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-06-13T21:25:01Z</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-06-13T21:25:01Z</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3629,16 +3629,16 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2025-08-28T20:16:18Z</t>
+          <t>2025-11-24T00:28:46Z</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>3230</v>
+        <v>17564</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5452619', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5445877', 'current_grade': None, 'current_score': 17.09, 'final_grade': None, 'final_score': 10.17, 'unposted_current_score': 22.63, 'unposted_current_grade': None, 'unposted_final_score': 17.45, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3660,56 +3660,56 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>U77632975</t>
+          <t>U87068871</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5452619</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5445877</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>{'id': 5452619, 'name': 'Francisco Tezza', 'created_at': '2024-11-21T09:04:49-05:00', 'sortable_name': 'Tezza, Francisco', 'short_name': 'Francisco Tezza', 'sis_user_id': 'U77632975', 'integration_id': None, 'login_id': 'franciscot'}</t>
+          <t>{'id': 5445877, 'name': 'Nicholas Thornton', 'created_at': '2024-11-15T13:07:34-05:00', 'sortable_name': 'Thornton, Nicholas', 'short_name': 'Nicholas Thornton', 'sis_user_id': 'U87068871', 'integration_id': None, 'login_id': 'nthornton1', 'pronouns': 'he/him/his'}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>46552815</v>
+        <v>46879803</v>
       </c>
       <c r="B34" t="n">
-        <v>5445877</v>
+        <v>86643</v>
       </c>
       <c r="C34" t="n">
+        <v>5452411</v>
+      </c>
+      <c r="D34" t="n">
         <v>1995626</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2025-06-13T21:25:01Z</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2025-06-13T21:25:01Z</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+      <c r="E34" t="n">
         <v>2175683</v>
       </c>
-      <c r="K34" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L34" t="b">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="b">
         <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-13T21:25:26Z</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-08-13T21:25:26Z</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3726,16 +3726,16 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2025-08-30T02:51:09Z</t>
+          <t>2025-11-26T00:40:33Z</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>13943</v>
+        <v>13830</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5445877', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.06, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.06, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5452411', 'current_grade': None, 'current_score': 41.35, 'final_grade': None, 'final_score': 24.86, 'unposted_current_score': 49.77, 'unposted_current_grade': None, 'unposted_final_score': 38.81, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -3757,56 +3757,56 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>U87068871</t>
+          <t>U01739412</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5445877</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5452411</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>{'id': 5445877, 'name': 'Nicholas Thornton', 'created_at': '2024-11-15T13:07:34-05:00', 'sortable_name': 'Thornton, Nicholas', 'short_name': 'Nicholas Thornton', 'sis_user_id': 'U87068871', 'integration_id': None, 'login_id': 'nthornton1', 'pronouns': 'he/him/his'}</t>
+          <t>{'id': 5452411, 'name': 'Heath Vincent', 'created_at': '2024-11-20T19:05:49-05:00', 'sortable_name': 'Vincent, Heath', 'short_name': 'Heath Vincent', 'sis_user_id': 'U01739412', 'integration_id': None, 'login_id': 'hwvincent'}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>46879803</v>
+        <v>46892457</v>
       </c>
       <c r="B35" t="n">
-        <v>5452411</v>
+        <v>86643</v>
       </c>
       <c r="C35" t="n">
+        <v>5551387</v>
+      </c>
+      <c r="D35" t="n">
         <v>1995626</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2025-08-13T21:25:26Z</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2025-08-13T21:25:26Z</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+      <c r="E35" t="n">
         <v>2175683</v>
       </c>
-      <c r="K35" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L35" t="b">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="b">
         <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:27:20Z</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:27:20Z</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3823,16 +3823,16 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2025-08-28T19:36:18Z</t>
+          <t>2025-11-25T19:17:03Z</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>1606</v>
+        <v>15310</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5452411', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.03, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5551387', 'current_grade': None, 'current_score': 97.53, 'final_grade': None, 'final_score': 70.21, 'unposted_current_score': 97.17, 'unposted_current_grade': None, 'unposted_final_score': 84.51, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -3854,56 +3854,56 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>U01739412</t>
+          <t>U74867618</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5452411</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5551387</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>{'id': 5452411, 'name': 'Heath Vincent', 'created_at': '2024-11-20T19:05:49-05:00', 'sortable_name': 'Vincent, Heath', 'short_name': 'Heath Vincent', 'sis_user_id': 'U01739412', 'integration_id': None, 'login_id': 'hwvincent'}</t>
+          <t>{'id': 5551387, 'name': 'Caden Weber', 'created_at': '2025-06-28T19:05:04-04:00', 'sortable_name': 'Weber, Caden', 'short_name': 'Caden Weber', 'sis_user_id': 'U74867618', 'integration_id': None, 'login_id': 'cadenweber'}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>46892457</v>
+        <v>47138923</v>
       </c>
       <c r="B36" t="n">
-        <v>5551387</v>
+        <v>86643</v>
       </c>
       <c r="C36" t="n">
+        <v>5578501</v>
+      </c>
+      <c r="D36" t="n">
         <v>1995626</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2025-08-14T15:27:20Z</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2025-08-14T15:27:20Z</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+      <c r="E36" t="n">
         <v>2175683</v>
       </c>
-      <c r="K36" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L36" t="b">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="b">
         <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-09-01T04:41:45Z</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-09-01T04:41:45Z</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>StudentViewEnrollment</t>
+        </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3920,16 +3920,16 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2025-09-02T15:43:52Z</t>
+          <t>2025-09-01T04:41:47Z</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>2882</v>
+        <v>0</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5551387', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 0.06, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 0.06, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5578501', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 5.0, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 13.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -3949,59 +3949,55 @@
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>U74867618</t>
-        </is>
-      </c>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5551387</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5578501</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>{'id': 5551387, 'name': 'Caden Weber', 'created_at': '2025-06-28T19:05:04-04:00', 'sortable_name': 'Weber, Caden', 'short_name': 'Caden Weber', 'sis_user_id': 'U74867618', 'integration_id': None, 'login_id': 'cadenweber'}</t>
+          <t>{'id': 5578501, 'name': 'Test Student', 'created_at': '2025-09-01T00:41:45-04:00', 'sortable_name': 'Student, Test', 'short_name': 'Test Student', 'sis_user_id': None, 'integration_id': None, 'login_id': '9afa41c2039279daf19adba106c1e404fc912ce9'}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>47138923</v>
+        <v>46996199</v>
       </c>
       <c r="B37" t="n">
-        <v>5578501</v>
+        <v>86643</v>
       </c>
       <c r="C37" t="n">
+        <v>5202271</v>
+      </c>
+      <c r="D37" t="n">
         <v>1995626</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>StudentViewEnrollment</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2025-09-01T04:41:45Z</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2025-09-01T04:41:45Z</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+      <c r="E37" t="n">
         <v>2175683</v>
       </c>
-      <c r="K37" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L37" t="b">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="b">
         <v>0</v>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-27T00:43:34Z</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-08-24T14:26:59Z</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>TaEnrollment</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>active</t>
@@ -4009,26 +4005,22 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>7741</v>
+        <v>7745</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2025-09-01T04:41:47Z</t>
+          <t>2025-11-16T21:58:49Z</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1995626/grades/5578501', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
+        <v>19986</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
           <t>BU.ISM</t>
@@ -4046,55 +4038,59 @@
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>U44677914</t>
+        </is>
+      </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5578501</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/5202271</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>{'id': 5578501, 'name': 'Test Student', 'created_at': '2025-09-01T00:41:45-04:00', 'sortable_name': 'Student, Test', 'short_name': 'Test Student', 'sis_user_id': None, 'integration_id': None, 'login_id': '9afa41c2039279daf19adba106c1e404fc912ce9'}</t>
+          <t>{'id': 5202271, 'name': 'Lakshmi Narasimha Koushik Devalapalli', 'created_at': '2023-07-31T13:04:58-04:00', 'sortable_name': 'Devalapalli, Lakshmi Narasimha Koushik', 'short_name': 'Lakshmi Narasimha Koushik Devalapalli', 'sis_user_id': 'U44677914', 'integration_id': None, 'login_id': 'devalapalli'}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>46996199</v>
+        <v>45573117</v>
       </c>
       <c r="B38" t="n">
-        <v>5202271</v>
+        <v>86643</v>
       </c>
       <c r="C38" t="n">
+        <v>964585</v>
+      </c>
+      <c r="D38" t="n">
         <v>1995626</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2025-08-24T14:26:59Z</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2025-08-27T00:43:34Z</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
+      <c r="E38" t="n">
         <v>2175683</v>
       </c>
-      <c r="K38" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L38" t="b">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="b">
         <v>0</v>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-03-10T21:26:20Z</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-03-10T21:26:20Z</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>TeacherEnrollment</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
           <t>active</t>
@@ -4102,20 +4098,20 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>7745</v>
+        <v>7743</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2025-09-02T16:38:56Z</t>
+          <t>2025-11-27T22:45:30Z</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1546</v>
+        <v>19791</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
@@ -4137,108 +4133,15 @@
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>U44677914</t>
+          <t>U84383097</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/5202271</t>
+          <t>https://usflearn.instructure.com/courses/1995626/users/964585</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
-        <is>
-          <t>{'id': 5202271, 'name': 'Lakshmi Narasimha Koushik Devalapalli', 'created_at': '2023-07-31T13:04:58-04:00', 'sortable_name': 'Devalapalli, Lakshmi Narasimha Koushik', 'short_name': 'Lakshmi Narasimha Koushik Devalapalli', 'sis_user_id': 'U44677914', 'integration_id': None, 'login_id': 'devalapalli'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>45573117</v>
-      </c>
-      <c r="B39" t="n">
-        <v>964585</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1995626</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>TeacherEnrollment</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2025-03-10T21:26:20Z</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2025-03-10T21:26:20Z</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2175683</v>
-      </c>
-      <c r="K39" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>TeacherEnrollment</t>
-        </is>
-      </c>
-      <c r="O39" t="n">
-        <v>7743</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>2025-09-02T20:50:03Z</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="n">
-        <v>5427</v>
-      </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>CGS2100.901F25</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>CGS2100.901F25</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>U84383097</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1995626/users/964585</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
         <is>
           <t>{'id': 964585, 'name': 'Dennis Walpole (Admin)', 'created_at': '2011-12-31T00:55:24-05:00', 'sortable_name': 'Walpole (Admin), Dennis', 'short_name': 'Dennis Walpole', 'sis_user_id': 'U84383097', 'integration_id': None, 'login_id': 'walpole'}</t>
         </is>
